--- a/WrokSpace/PosTest/src/main/java/PosData.xlsx
+++ b/WrokSpace/PosTest/src/main/java/PosData.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14895" windowHeight="2805"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14895" windowHeight="3840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginexcel" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="customerexcel" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O11"/>
 </workbook>
 </file>
 
@@ -363,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -393,7 +393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
